--- a/biology/Zoologie/Gnathorhynchidae/Gnathorhynchidae.xlsx
+++ b/biology/Zoologie/Gnathorhynchidae/Gnathorhynchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gnathorhynchidae sont une famille de vers plats aquatiques de l'ordre des Rhabdocoela (infra-ordre des Eukalyptorhynchia  et sous-ordre des Kalyptorhynchia).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gnathorhynchidae Meixner, 1929[1].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (28 décembre 2023)[1], la famille des Gnathorhynchidae regroupe les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gnathorhynchidae Meixner, 1929.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gnathorhynchidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathorhynchidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (28 décembre 2023), la famille des Gnathorhynchidae regroupe les genres suivants :
 Ancistrorhynchus L'Hardy, 1963
 Drepanorhynchides L'Hardy, 1964
 Gnathorhynchus Meixner, 1929
@@ -553,9 +604,43 @@
 Psittacorhynchus Den Hartog, 1968
 Pterognathus Evdonin, 1977
 Smithsoniarhynches Hochberg, 2004
-Uncinorhynchus Karling, 1947
-Synonymes, renommages
-Le genre Carcharodognathus Evdonin, 1977 est synonyme de Paragnathorhynchus Meixner, 1938 (pour les vers identifiés comme Paragnathorhynchus subterraneus par Karling en 1983).
+Uncinorhynchus Karling, 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gnathorhynchidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathorhynchidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, renommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Carcharodognathus Evdonin, 1977 est synonyme de Paragnathorhynchus Meixner, 1938 (pour les vers identifiés comme Paragnathorhynchus subterraneus par Karling en 1983).
 Le genre Drepanorhynchus L'Hardy, 1963 est renommé en Drepanorhynchides L'Hardy, 1964. Le nom de genre était déjà utilisé pour le genre d'oiseau Drepanorhynchus Fisher &amp; Reichenow, 1884.
 Le genre Psittorhynchus Den Hartog, 1966 est Psittacorhynchus Den Hartog, 1968. Psittorhynchus est un nomen nudum, décrit plus tard comme Psittacorhynchus verweyi par Den Hartog en 1968.
 </t>
